--- a/excel/tw_1101.xlsx
+++ b/excel/tw_1101.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="2471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="2473">
   <si>
     <t>index</t>
   </si>
@@ -7427,6 +7427,12 @@
   </si>
   <si>
     <t>2020-01-20 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-01-30 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-01-31 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -7784,7 +7790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2461"/>
+  <dimension ref="A1:L2463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -101305,6 +101311,82 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2462" spans="1:12">
+      <c r="A2462" s="1">
+        <v>2460</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C2462">
+        <v>64150715</v>
+      </c>
+      <c r="D2462">
+        <v>2725362280</v>
+      </c>
+      <c r="E2462">
+        <v>42.7</v>
+      </c>
+      <c r="F2462">
+        <v>43.05</v>
+      </c>
+      <c r="G2462">
+        <v>41.6</v>
+      </c>
+      <c r="H2462">
+        <v>41.85</v>
+      </c>
+      <c r="I2462">
+        <v>-3.1</v>
+      </c>
+      <c r="J2462">
+        <v>19930</v>
+      </c>
+      <c r="K2462">
+        <v>1101</v>
+      </c>
+      <c r="L2462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:12">
+      <c r="A2463" s="1">
+        <v>2461</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C2463">
+        <v>26430159</v>
+      </c>
+      <c r="D2463">
+        <v>1116222284</v>
+      </c>
+      <c r="E2463">
+        <v>41.75</v>
+      </c>
+      <c r="F2463">
+        <v>42.5</v>
+      </c>
+      <c r="G2463">
+        <v>41.75</v>
+      </c>
+      <c r="H2463">
+        <v>42.05</v>
+      </c>
+      <c r="I2463">
+        <v>0.2</v>
+      </c>
+      <c r="J2463">
+        <v>8709</v>
+      </c>
+      <c r="K2463">
+        <v>1101</v>
+      </c>
+      <c r="L2463">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
